--- a/Code/Results/Cases/Case_0_250/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_250/res_line/loading_percent.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.83619895468989</v>
+        <v>13.78907395996592</v>
       </c>
       <c r="D2">
-        <v>7.293459718945666</v>
+        <v>9.460563024875897</v>
       </c>
       <c r="E2">
-        <v>9.674999886657416</v>
+        <v>14.5234661690076</v>
       </c>
       <c r="F2">
-        <v>20.4798559890036</v>
+        <v>34.12845656499626</v>
       </c>
       <c r="G2">
-        <v>21.50944546642372</v>
+        <v>36.0436097434874</v>
       </c>
       <c r="H2">
-        <v>8.879945135504434</v>
+        <v>16.27177381568231</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.033265105351574</v>
+        <v>10.63916787136682</v>
       </c>
       <c r="K2">
-        <v>24.35736914309155</v>
+        <v>18.25623686488967</v>
       </c>
       <c r="L2">
-        <v>5.669890918681248</v>
+        <v>9.837132795172533</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.32401123104266</v>
+        <v>25.70484035575479</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.40790507651434</v>
+        <v>13.73759570133807</v>
       </c>
       <c r="D3">
-        <v>6.994247591682476</v>
+        <v>9.408922606649135</v>
       </c>
       <c r="E3">
-        <v>9.444949322414686</v>
+        <v>14.51466324519637</v>
       </c>
       <c r="F3">
-        <v>20.47178501601023</v>
+        <v>34.29035512237162</v>
       </c>
       <c r="G3">
-        <v>21.61548305341008</v>
+        <v>36.29648887834801</v>
       </c>
       <c r="H3">
-        <v>9.035667374580758</v>
+        <v>16.35324828137597</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.046930661404794</v>
+        <v>10.66273249963868</v>
       </c>
       <c r="K3">
-        <v>22.76036101073364</v>
+        <v>17.60117637634765</v>
       </c>
       <c r="L3">
-        <v>5.650038223309509</v>
+        <v>9.847657745140191</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.54207892285084</v>
+        <v>25.85773459955056</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10.14184878965916</v>
+        <v>13.70865341613171</v>
       </c>
       <c r="D4">
-        <v>6.805827830941562</v>
+        <v>9.378084436155707</v>
       </c>
       <c r="E4">
-        <v>9.305296281301702</v>
+        <v>14.51138196415795</v>
       </c>
       <c r="F4">
-        <v>20.49373711139931</v>
+        <v>34.39889614389239</v>
       </c>
       <c r="G4">
-        <v>21.7250458201351</v>
+        <v>36.46458138862744</v>
       </c>
       <c r="H4">
-        <v>9.138765200962396</v>
+        <v>16.40638446748228</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.057936539707157</v>
+        <v>10.67841396212094</v>
       </c>
       <c r="K4">
-        <v>21.72163531056642</v>
+        <v>17.18575067399386</v>
       </c>
       <c r="L4">
-        <v>5.639365190286134</v>
+        <v>9.85492716808427</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.69446487854803</v>
+        <v>25.95802771258034</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>10.03281328210682</v>
+        <v>13.69753846575042</v>
       </c>
       <c r="D5">
-        <v>6.727963017259824</v>
+        <v>9.365744698667514</v>
       </c>
       <c r="E5">
-        <v>9.248853469859236</v>
+        <v>14.51058096461735</v>
       </c>
       <c r="F5">
-        <v>20.50914425671118</v>
+        <v>34.44541726723241</v>
       </c>
       <c r="G5">
-        <v>21.78018179402089</v>
+        <v>36.53628909505326</v>
       </c>
       <c r="H5">
-        <v>9.182581185073669</v>
+        <v>16.42882032335166</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.063064059992155</v>
+        <v>10.68510956159761</v>
       </c>
       <c r="K5">
-        <v>21.28367126715101</v>
+        <v>17.01335021726958</v>
       </c>
       <c r="L5">
-        <v>5.635394602756641</v>
+        <v>9.858092916032504</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.76094390246679</v>
+        <v>26.00050883203947</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.01467583785598</v>
+        <v>13.6957341100128</v>
       </c>
       <c r="D6">
-        <v>6.714971440079676</v>
+        <v>9.363709651251014</v>
       </c>
       <c r="E6">
-        <v>9.239511304497873</v>
+        <v>14.51048039858657</v>
       </c>
       <c r="F6">
-        <v>20.51208382675443</v>
+        <v>34.45328014927596</v>
       </c>
       <c r="G6">
-        <v>21.78995031922476</v>
+        <v>36.54838943543956</v>
       </c>
       <c r="H6">
-        <v>9.189963508153868</v>
+        <v>16.43259304517129</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.063953854417538</v>
+        <v>10.68623980856178</v>
       </c>
       <c r="K6">
-        <v>21.21006003933775</v>
+        <v>16.98454199553545</v>
       </c>
       <c r="L6">
-        <v>5.634758086421033</v>
+        <v>9.858630884119306</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.77223973592246</v>
+        <v>26.00766001475527</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10.14038056732744</v>
+        <v>13.70850075440194</v>
       </c>
       <c r="D7">
-        <v>6.804781958919473</v>
+        <v>9.377917087750426</v>
       </c>
       <c r="E7">
-        <v>9.304533096565805</v>
+        <v>14.51136898812405</v>
       </c>
       <c r="F7">
-        <v>20.49391914260863</v>
+        <v>34.39951428241525</v>
       </c>
       <c r="G7">
-        <v>21.72574785090991</v>
+        <v>36.46553549319795</v>
       </c>
       <c r="H7">
-        <v>9.139348918320085</v>
+        <v>16.40668387690287</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.058003109282146</v>
+        <v>10.67850302482075</v>
       </c>
       <c r="K7">
-        <v>21.71578825341581</v>
+        <v>17.18343792093052</v>
       </c>
       <c r="L7">
-        <v>5.639310111525289</v>
+        <v>9.854969038311436</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.69534404413071</v>
+        <v>25.95859410856103</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.68925344426233</v>
+        <v>13.77077663765619</v>
       </c>
       <c r="D8">
-        <v>7.191323504744437</v>
+        <v>9.442582168434427</v>
       </c>
       <c r="E8">
-        <v>9.595385025154986</v>
+        <v>14.51999147057066</v>
       </c>
       <c r="F8">
-        <v>20.47130755762036</v>
+        <v>34.18237898064548</v>
       </c>
       <c r="G8">
-        <v>21.53636741953385</v>
+        <v>36.12813126060702</v>
       </c>
       <c r="H8">
-        <v>8.932034991783306</v>
+        <v>16.29922077230788</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.037425030821014</v>
+        <v>10.64704146561079</v>
       </c>
       <c r="K8">
-        <v>23.8187574335061</v>
+        <v>18.03323528318746</v>
       </c>
       <c r="L8">
-        <v>5.662729414389648</v>
+        <v>9.84059456821168</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.39519543848243</v>
+        <v>25.75622533802693</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>11.73501096286218</v>
+        <v>13.91362076768727</v>
       </c>
       <c r="D9">
-        <v>7.908263688471482</v>
+        <v>9.575903330757098</v>
       </c>
       <c r="E9">
-        <v>10.17569146159851</v>
+        <v>14.55365016588498</v>
       </c>
       <c r="F9">
-        <v>20.65358255960147</v>
+        <v>33.82937573281237</v>
       </c>
       <c r="G9">
-        <v>21.54781760929264</v>
+        <v>35.5689531294117</v>
       </c>
       <c r="H9">
-        <v>8.588837276614397</v>
+        <v>16.1131547207898</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.018517312641142</v>
+        <v>10.59495259857779</v>
       </c>
       <c r="K9">
-        <v>27.48399436368221</v>
+        <v>19.58662681077378</v>
       </c>
       <c r="L9">
-        <v>5.720801741001637</v>
+        <v>9.818789910299119</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.96632688300622</v>
+        <v>25.41039108741667</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>12.47775482428755</v>
+        <v>14.03057897792292</v>
       </c>
       <c r="D10">
-        <v>8.405792414443919</v>
+        <v>9.677296113578411</v>
       </c>
       <c r="E10">
-        <v>10.60467589416059</v>
+        <v>14.58844324681213</v>
       </c>
       <c r="F10">
-        <v>20.94259883525129</v>
+        <v>33.61483566802742</v>
       </c>
       <c r="G10">
-        <v>21.8284103847694</v>
+        <v>35.22158807903214</v>
       </c>
       <c r="H10">
-        <v>8.381462301928591</v>
+        <v>15.99147403898007</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.018688423635104</v>
+        <v>10.56251930672673</v>
       </c>
       <c r="K10">
-        <v>29.90158412096138</v>
+        <v>20.64947570989334</v>
       </c>
       <c r="L10">
-        <v>5.771028157183277</v>
+        <v>9.806634786038588</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.76778341224304</v>
+        <v>25.1875529056669</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.80898247597495</v>
+        <v>14.08624771497803</v>
       </c>
       <c r="D11">
-        <v>8.625131793924961</v>
+        <v>9.724052905415057</v>
       </c>
       <c r="E11">
-        <v>10.79976315327419</v>
+        <v>14.60642063677027</v>
       </c>
       <c r="F11">
-        <v>21.11104411963379</v>
+        <v>33.52705708537945</v>
       </c>
       <c r="G11">
-        <v>22.02248668843349</v>
+        <v>35.07756006538823</v>
       </c>
       <c r="H11">
-        <v>8.298405281347501</v>
+        <v>15.93937748718533</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.022043151611132</v>
+        <v>10.54902752871484</v>
       </c>
       <c r="K11">
-        <v>30.94270193205296</v>
+        <v>21.11433878739299</v>
       </c>
       <c r="L11">
-        <v>5.795551920257421</v>
+        <v>9.801938455429624</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.70725660004288</v>
+        <v>25.09299718331559</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.93338263428877</v>
+        <v>14.10766898153631</v>
       </c>
       <c r="D12">
-        <v>8.707143201992467</v>
+        <v>9.741839351372107</v>
       </c>
       <c r="E12">
-        <v>10.87358227006505</v>
+        <v>14.61353384832825</v>
       </c>
       <c r="F12">
-        <v>21.18038886825082</v>
+        <v>33.49523668137394</v>
       </c>
       <c r="G12">
-        <v>22.10604458097021</v>
+        <v>35.02505049181858</v>
       </c>
       <c r="H12">
-        <v>8.268722708478609</v>
+        <v>15.92011814910214</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.023803880337055</v>
+        <v>10.54409971611568</v>
       </c>
       <c r="K12">
-        <v>31.32860367635297</v>
+        <v>21.28757822952999</v>
       </c>
       <c r="L12">
-        <v>5.805081922221595</v>
+        <v>9.800279371504447</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.68901137122336</v>
+        <v>25.05817452862486</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.90663756410933</v>
+        <v>14.10304059669027</v>
       </c>
       <c r="D13">
-        <v>8.68952775647989</v>
+        <v>9.738005299886856</v>
       </c>
       <c r="E13">
-        <v>10.85768719678285</v>
+        <v>14.6119883604644</v>
       </c>
       <c r="F13">
-        <v>21.16520340441679</v>
+        <v>33.50202652190541</v>
       </c>
       <c r="G13">
-        <v>22.08759387543479</v>
+        <v>35.03626874849722</v>
       </c>
       <c r="H13">
-        <v>8.275034189887572</v>
+        <v>15.92424515201128</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.023402554120519</v>
+        <v>10.54515295300251</v>
       </c>
       <c r="K13">
-        <v>31.24586261348433</v>
+        <v>21.25039395235967</v>
       </c>
       <c r="L13">
-        <v>5.80301860105967</v>
+        <v>9.800631386171538</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.69272654181494</v>
+        <v>25.06563040779348</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.81923792399272</v>
+        <v>14.08800330656129</v>
       </c>
       <c r="D14">
-        <v>8.63190013076502</v>
+        <v>9.72551464989318</v>
       </c>
       <c r="E14">
-        <v>10.80583767435605</v>
+        <v>14.60699974236631</v>
       </c>
       <c r="F14">
-        <v>21.11663644811686</v>
+        <v>33.52441070967648</v>
       </c>
       <c r="G14">
-        <v>22.02915665291987</v>
+        <v>35.07319926371051</v>
       </c>
       <c r="H14">
-        <v>8.295926922893994</v>
+        <v>15.93778361919443</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.022178067906748</v>
+        <v>10.54861848411096</v>
       </c>
       <c r="K14">
-        <v>30.97461706600222</v>
+        <v>21.12864790251089</v>
       </c>
       <c r="L14">
-        <v>5.796331067065206</v>
+        <v>9.80179957316013</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.70565958064932</v>
+        <v>25.09011256960905</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.76556729480928</v>
+        <v>14.07883649217961</v>
       </c>
       <c r="D15">
-        <v>8.596463998377679</v>
+        <v>9.717873962802351</v>
       </c>
       <c r="E15">
-        <v>10.77406971414473</v>
+        <v>14.60398375284811</v>
       </c>
       <c r="F15">
-        <v>21.08761844805979</v>
+        <v>33.5383067533371</v>
       </c>
       <c r="G15">
-        <v>21.99468690956981</v>
+        <v>35.09608529363825</v>
       </c>
       <c r="H15">
-        <v>8.308959362766023</v>
+        <v>15.9461373399185</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.02149247547778</v>
+        <v>10.55076481509265</v>
       </c>
       <c r="K15">
-        <v>30.80738700399392</v>
+        <v>21.05370790769501</v>
       </c>
       <c r="L15">
-        <v>5.792266529685478</v>
+        <v>9.802530645178395</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.71420206092856</v>
+        <v>25.10523679711816</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>12.45596795966435</v>
+        <v>14.02698932643922</v>
       </c>
       <c r="D16">
-        <v>8.391313580817378</v>
+        <v>9.674252299463385</v>
       </c>
       <c r="E16">
-        <v>10.59192107838543</v>
+        <v>14.58731134184746</v>
       </c>
       <c r="F16">
-        <v>20.93235562653763</v>
+        <v>33.62077041306199</v>
       </c>
       <c r="G16">
-        <v>21.81710933617433</v>
+        <v>35.23128378175068</v>
       </c>
       <c r="H16">
-        <v>8.387129511946059</v>
+        <v>15.99494421836143</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.01853674497062</v>
+        <v>10.56342640236626</v>
       </c>
       <c r="K16">
-        <v>29.83237169246814</v>
+        <v>20.61871071845322</v>
       </c>
       <c r="L16">
-        <v>5.769459394448499</v>
+        <v>9.806958425190173</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.7723716072369</v>
+        <v>25.19386977687884</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.26427904557977</v>
+        <v>13.99580434346254</v>
       </c>
       <c r="D17">
-        <v>8.263637146626634</v>
+        <v>9.64764656887227</v>
       </c>
       <c r="E17">
-        <v>10.48012777816942</v>
+        <v>14.57763151301866</v>
       </c>
       <c r="F17">
-        <v>20.84675453858743</v>
+        <v>33.67387909750307</v>
       </c>
       <c r="G17">
-        <v>21.72557413032639</v>
+        <v>35.31782031315844</v>
       </c>
       <c r="H17">
-        <v>8.438073586201423</v>
+        <v>16.02571987900189</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.017576198657121</v>
+        <v>10.57151697697231</v>
       </c>
       <c r="K17">
-        <v>29.21926892400622</v>
+        <v>20.34699522333731</v>
       </c>
       <c r="L17">
-        <v>5.755898811007346</v>
+        <v>9.809887759677899</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.8159612482254</v>
+        <v>25.24999113619062</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>12.15340198822184</v>
+        <v>13.97810032607401</v>
       </c>
       <c r="D18">
-        <v>8.189545150796478</v>
+        <v>9.632403835467072</v>
       </c>
       <c r="E18">
-        <v>10.41582408775327</v>
+        <v>14.57226651455051</v>
       </c>
       <c r="F18">
-        <v>20.80098569365102</v>
+        <v>33.70534934983366</v>
       </c>
       <c r="G18">
-        <v>21.67915224467024</v>
+        <v>35.36890950791029</v>
       </c>
       <c r="H18">
-        <v>8.468427216273998</v>
+        <v>16.04372773679832</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.017330967699362</v>
+        <v>10.57628929133137</v>
       </c>
       <c r="K18">
-        <v>28.86110188028699</v>
+        <v>20.18896373292787</v>
       </c>
       <c r="L18">
-        <v>5.748256680089135</v>
+        <v>9.811651079903749</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.84381268624833</v>
+        <v>25.28291184427304</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12.11575644009673</v>
+        <v>13.97214643118018</v>
       </c>
       <c r="D19">
-        <v>8.164347674183894</v>
+        <v>9.627253556165579</v>
       </c>
       <c r="E19">
-        <v>10.39405296741827</v>
+        <v>14.57048491723701</v>
       </c>
       <c r="F19">
-        <v>20.78607683863834</v>
+        <v>33.71616301601284</v>
       </c>
       <c r="G19">
-        <v>21.66448722367057</v>
+        <v>35.38643282400336</v>
       </c>
       <c r="H19">
-        <v>8.478880846115182</v>
+        <v>16.04987752639483</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.017300134915192</v>
+        <v>10.57792553274012</v>
       </c>
       <c r="K19">
-        <v>28.73888089772135</v>
+        <v>20.1351605309915</v>
       </c>
       <c r="L19">
-        <v>5.745696173401318</v>
+        <v>9.812261597333961</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.85370843493685</v>
+        <v>25.29416824622325</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.28474967465088</v>
+        <v>13.99910004493352</v>
       </c>
       <c r="D20">
-        <v>8.277296740668927</v>
+        <v>9.650472640396034</v>
       </c>
       <c r="E20">
-        <v>10.49202905397607</v>
+        <v>14.57864100591613</v>
       </c>
       <c r="F20">
-        <v>20.85550631873514</v>
+        <v>33.66812994733611</v>
       </c>
       <c r="G20">
-        <v>21.73466981683985</v>
+        <v>35.30847204778257</v>
       </c>
       <c r="H20">
-        <v>8.432540607515746</v>
+        <v>16.02241203324656</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.017646514753617</v>
+        <v>10.57064342510308</v>
       </c>
       <c r="K20">
-        <v>29.28510611828153</v>
+        <v>20.37610158571812</v>
       </c>
       <c r="L20">
-        <v>5.757326034172068</v>
+        <v>9.809567811783262</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.81103056123015</v>
+        <v>25.24395053534404</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.84493772997514</v>
+        <v>14.0924109869393</v>
       </c>
       <c r="D21">
-        <v>8.648855489782676</v>
+        <v>9.729181350152226</v>
       </c>
       <c r="E21">
-        <v>10.82106901117441</v>
+        <v>14.60845675722906</v>
       </c>
       <c r="F21">
-        <v>21.13074906854671</v>
+        <v>33.51779734640385</v>
       </c>
       <c r="G21">
-        <v>22.0460441984453</v>
+        <v>35.06229661162821</v>
       </c>
       <c r="H21">
-        <v>8.289740955793576</v>
+        <v>15.93379432654982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.022524264610825</v>
+        <v>10.547595657348</v>
       </c>
       <c r="K21">
-        <v>31.05451426839167</v>
+        <v>21.16448433979355</v>
       </c>
       <c r="L21">
-        <v>5.798288732485593</v>
+        <v>9.801453214064763</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.70173078378702</v>
+        <v>25.08289484254158</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.20503515238777</v>
+        <v>14.15537441034561</v>
       </c>
       <c r="D22">
-        <v>8.885570488137532</v>
+        <v>9.781087356858492</v>
       </c>
       <c r="E22">
-        <v>11.03577026582126</v>
+        <v>14.62972230689491</v>
       </c>
       <c r="F22">
-        <v>21.34313086724364</v>
+        <v>33.42782340937664</v>
       </c>
       <c r="G22">
-        <v>22.30839759358991</v>
+        <v>34.91325214233228</v>
       </c>
       <c r="H22">
-        <v>8.206804829544961</v>
+        <v>15.87860840802465</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.028579795756694</v>
+        <v>10.53358882692454</v>
       </c>
       <c r="K22">
-        <v>32.16231657683441</v>
+        <v>21.66340895341562</v>
       </c>
       <c r="L22">
-        <v>5.826480083280166</v>
+        <v>9.796845080610996</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.65773490187872</v>
+        <v>24.98337026411101</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.01341486624884</v>
+        <v>14.12159316135456</v>
       </c>
       <c r="D23">
-        <v>8.759803031453314</v>
+        <v>9.753345002773601</v>
       </c>
       <c r="E23">
-        <v>10.92122595056638</v>
+        <v>14.61821092750588</v>
       </c>
       <c r="F23">
-        <v>21.22673090444948</v>
+        <v>33.47508429400987</v>
       </c>
       <c r="G23">
-        <v>22.1628400669527</v>
+        <v>34.99170983080801</v>
       </c>
       <c r="H23">
-        <v>8.25006609166371</v>
+        <v>15.90781221796397</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.02507893837646</v>
+        <v>10.54096798678841</v>
       </c>
       <c r="K23">
-        <v>31.57547897804975</v>
+        <v>21.39865168394736</v>
       </c>
       <c r="L23">
-        <v>5.811303072494227</v>
+        <v>9.799241077310947</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.67857383803453</v>
+        <v>25.03596245421131</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.27549699242025</v>
+        <v>13.99760935754524</v>
       </c>
       <c r="D24">
-        <v>8.271123381300161</v>
+        <v>9.649194806808257</v>
       </c>
       <c r="E24">
-        <v>10.48664858390067</v>
+        <v>14.57818399073927</v>
       </c>
       <c r="F24">
-        <v>20.85153892909838</v>
+        <v>33.67072621885722</v>
       </c>
       <c r="G24">
-        <v>21.73053837605309</v>
+        <v>35.31269423155138</v>
       </c>
       <c r="H24">
-        <v>8.435038760289519</v>
+        <v>16.02390653058816</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.017613770051186</v>
+        <v>10.57103798117621</v>
       </c>
       <c r="K24">
-        <v>29.25535884024204</v>
+        <v>20.36294825506348</v>
       </c>
       <c r="L24">
-        <v>5.75668030699617</v>
+        <v>9.809712213470089</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.81325106044194</v>
+        <v>25.24667944846587</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>11.45616258423247</v>
+        <v>13.87282066211233</v>
       </c>
       <c r="D25">
-        <v>7.719183636255248</v>
+        <v>9.539192863611293</v>
       </c>
       <c r="E25">
-        <v>10.01800693118095</v>
+        <v>14.54276562189806</v>
       </c>
       <c r="F25">
-        <v>20.57820529110929</v>
+        <v>33.91703400245997</v>
       </c>
       <c r="G25">
-        <v>21.49958583533235</v>
+        <v>35.70915348273748</v>
       </c>
       <c r="H25">
-        <v>8.674305316024522</v>
+        <v>16.1608514441605</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.021236228001288</v>
+        <v>10.60801760300921</v>
       </c>
       <c r="K25">
-        <v>26.54112934382533</v>
+        <v>19.17955509337718</v>
       </c>
       <c r="L25">
-        <v>5.703774817753855</v>
+        <v>9.82400797848485</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.06334075218377</v>
+        <v>25.49847246677509</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_250/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_250/res_line/loading_percent.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.78907395996592</v>
+        <v>10.83619895468975</v>
       </c>
       <c r="D2">
-        <v>9.460563024875897</v>
+        <v>7.293459718945691</v>
       </c>
       <c r="E2">
-        <v>14.5234661690076</v>
+        <v>9.674999886657371</v>
       </c>
       <c r="F2">
-        <v>34.12845656499626</v>
+        <v>20.47985598900324</v>
       </c>
       <c r="G2">
-        <v>36.0436097434874</v>
+        <v>21.50944546642314</v>
       </c>
       <c r="H2">
-        <v>16.27177381568231</v>
+        <v>8.879945135504252</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.63916787136682</v>
+        <v>6.033265105351549</v>
       </c>
       <c r="K2">
-        <v>18.25623686488967</v>
+        <v>24.35736914309164</v>
       </c>
       <c r="L2">
-        <v>9.837132795172533</v>
+        <v>5.669890918681283</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.70484035575479</v>
+        <v>14.32401123104226</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.73759570133807</v>
+        <v>10.40790507651435</v>
       </c>
       <c r="D3">
-        <v>9.408922606649135</v>
+        <v>6.994247591682476</v>
       </c>
       <c r="E3">
-        <v>14.51466324519637</v>
+        <v>9.444949322414697</v>
       </c>
       <c r="F3">
-        <v>34.29035512237162</v>
+        <v>20.47178501601014</v>
       </c>
       <c r="G3">
-        <v>36.29648887834801</v>
+        <v>21.61548305341002</v>
       </c>
       <c r="H3">
-        <v>16.35324828137597</v>
+        <v>9.035667374580699</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.66273249963868</v>
+        <v>6.046930661404795</v>
       </c>
       <c r="K3">
-        <v>17.60117637634765</v>
+        <v>22.76036101073369</v>
       </c>
       <c r="L3">
-        <v>9.847657745140191</v>
+        <v>5.650038223309566</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.85773459955056</v>
+        <v>14.54207892285076</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.70865341613171</v>
+        <v>10.14184878965915</v>
       </c>
       <c r="D4">
-        <v>9.378084436155707</v>
+        <v>6.805827830941562</v>
       </c>
       <c r="E4">
-        <v>14.51138196415795</v>
+        <v>9.305296281301665</v>
       </c>
       <c r="F4">
-        <v>34.39889614389239</v>
+        <v>20.49373711139929</v>
       </c>
       <c r="G4">
-        <v>36.46458138862744</v>
+        <v>21.72504582013508</v>
       </c>
       <c r="H4">
-        <v>16.40638446748228</v>
+        <v>9.138765200962396</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.67841396212094</v>
+        <v>6.057936539707097</v>
       </c>
       <c r="K4">
-        <v>17.18575067399386</v>
+        <v>21.72163531056644</v>
       </c>
       <c r="L4">
-        <v>9.85492716808427</v>
+        <v>5.63936519028608</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.95802771258034</v>
+        <v>14.69446487854799</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.69753846575042</v>
+        <v>10.0328132821069</v>
       </c>
       <c r="D5">
-        <v>9.365744698667514</v>
+        <v>6.727963017259937</v>
       </c>
       <c r="E5">
-        <v>14.51058096461735</v>
+        <v>9.248853469859341</v>
       </c>
       <c r="F5">
-        <v>34.44541726723241</v>
+        <v>20.5091442567113</v>
       </c>
       <c r="G5">
-        <v>36.53628909505326</v>
+        <v>21.78018179402091</v>
       </c>
       <c r="H5">
-        <v>16.42882032335166</v>
+        <v>9.182581185073674</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.68510956159761</v>
+        <v>6.063064059992222</v>
       </c>
       <c r="K5">
-        <v>17.01335021726958</v>
+        <v>21.28367126715101</v>
       </c>
       <c r="L5">
-        <v>9.858092916032504</v>
+        <v>5.635394602756675</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.00050883203947</v>
+        <v>14.7609439024668</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.6957341100128</v>
+        <v>10.01467583785589</v>
       </c>
       <c r="D6">
-        <v>9.363709651251014</v>
+        <v>6.71497144007949</v>
       </c>
       <c r="E6">
-        <v>14.51048039858657</v>
+        <v>9.239511304497789</v>
       </c>
       <c r="F6">
-        <v>34.45328014927596</v>
+        <v>20.51208382675424</v>
       </c>
       <c r="G6">
-        <v>36.54838943543956</v>
+        <v>21.78995031922469</v>
       </c>
       <c r="H6">
-        <v>16.43259304517129</v>
+        <v>9.189963508153818</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.68623980856178</v>
+        <v>6.063953854417541</v>
       </c>
       <c r="K6">
-        <v>16.98454199553545</v>
+        <v>21.21006003933776</v>
       </c>
       <c r="L6">
-        <v>9.858630884119306</v>
+        <v>5.634758086420912</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.00766001475527</v>
+        <v>14.77223973592239</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.70850075440194</v>
+        <v>10.14038056732739</v>
       </c>
       <c r="D7">
-        <v>9.377917087750426</v>
+        <v>6.804781958919494</v>
       </c>
       <c r="E7">
-        <v>14.51136898812405</v>
+        <v>9.304533096565862</v>
       </c>
       <c r="F7">
-        <v>34.39951428241525</v>
+        <v>20.49391914260856</v>
       </c>
       <c r="G7">
-        <v>36.46553549319795</v>
+        <v>21.72574785090985</v>
       </c>
       <c r="H7">
-        <v>16.40668387690287</v>
+        <v>9.139348918320032</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.67850302482075</v>
+        <v>6.058003109282153</v>
       </c>
       <c r="K7">
-        <v>17.18343792093052</v>
+        <v>21.71578825341583</v>
       </c>
       <c r="L7">
-        <v>9.854969038311436</v>
+        <v>5.639310111525318</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.95859410856103</v>
+        <v>14.69534404413065</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.77077663765619</v>
+        <v>10.68925344426225</v>
       </c>
       <c r="D8">
-        <v>9.442582168434427</v>
+        <v>7.191323504744459</v>
       </c>
       <c r="E8">
-        <v>14.51999147057066</v>
+        <v>9.595385025154997</v>
       </c>
       <c r="F8">
-        <v>34.18237898064548</v>
+        <v>20.47130755762048</v>
       </c>
       <c r="G8">
-        <v>36.12813126060702</v>
+        <v>21.53636741953398</v>
       </c>
       <c r="H8">
-        <v>16.29922077230788</v>
+        <v>8.932034991783365</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.64704146561079</v>
+        <v>6.037425030820983</v>
       </c>
       <c r="K8">
-        <v>18.03323528318746</v>
+        <v>23.81875743350611</v>
       </c>
       <c r="L8">
-        <v>9.84059456821168</v>
+        <v>5.662729414389624</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.75622533802693</v>
+        <v>14.39519543848253</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.91362076768727</v>
+        <v>11.73501096286211</v>
       </c>
       <c r="D9">
-        <v>9.575903330757098</v>
+        <v>7.908263688471457</v>
       </c>
       <c r="E9">
-        <v>14.55365016588498</v>
+        <v>10.17569146159842</v>
       </c>
       <c r="F9">
-        <v>33.82937573281237</v>
+        <v>20.65358255960124</v>
       </c>
       <c r="G9">
-        <v>35.5689531294117</v>
+        <v>21.54781760929244</v>
       </c>
       <c r="H9">
-        <v>16.1131547207898</v>
+        <v>8.588837276614242</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.59495259857779</v>
+        <v>6.018517312641117</v>
       </c>
       <c r="K9">
-        <v>19.58662681077378</v>
+        <v>27.48399436368223</v>
       </c>
       <c r="L9">
-        <v>9.818789910299119</v>
+        <v>5.720801741001643</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>25.41039108741667</v>
+        <v>13.96632688300608</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>14.03057897792292</v>
+        <v>12.47775482428754</v>
       </c>
       <c r="D10">
-        <v>9.677296113578411</v>
+        <v>8.405792414443981</v>
       </c>
       <c r="E10">
-        <v>14.58844324681213</v>
+        <v>10.60467589416061</v>
       </c>
       <c r="F10">
-        <v>33.61483566802742</v>
+        <v>20.94259883525131</v>
       </c>
       <c r="G10">
-        <v>35.22158807903214</v>
+        <v>21.8284103847694</v>
       </c>
       <c r="H10">
-        <v>15.99147403898007</v>
+        <v>8.381462301928591</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.56251930672673</v>
+        <v>6.018688423635085</v>
       </c>
       <c r="K10">
-        <v>20.64947570989334</v>
+        <v>29.90158412096136</v>
       </c>
       <c r="L10">
-        <v>9.806634786038588</v>
+        <v>5.771028157183333</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.1875529056669</v>
+        <v>13.76778341224307</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>14.08624771497803</v>
+        <v>12.80898247597496</v>
       </c>
       <c r="D11">
-        <v>9.724052905415057</v>
+        <v>8.625131793924909</v>
       </c>
       <c r="E11">
-        <v>14.60642063677027</v>
+        <v>10.79976315327411</v>
       </c>
       <c r="F11">
-        <v>33.52705708537945</v>
+        <v>21.1110441196337</v>
       </c>
       <c r="G11">
-        <v>35.07756006538823</v>
+        <v>22.02248668843337</v>
       </c>
       <c r="H11">
-        <v>15.93937748718533</v>
+        <v>8.298405281347419</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.54902752871484</v>
+        <v>6.022043151611085</v>
       </c>
       <c r="K11">
-        <v>21.11433878739299</v>
+        <v>30.94270193205301</v>
       </c>
       <c r="L11">
-        <v>9.801938455429624</v>
+        <v>5.795551920257322</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.09299718331559</v>
+        <v>13.70725660004275</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>14.10766898153631</v>
+        <v>12.93338263428878</v>
       </c>
       <c r="D12">
-        <v>9.741839351372107</v>
+        <v>8.707143201992482</v>
       </c>
       <c r="E12">
-        <v>14.61353384832825</v>
+        <v>10.87358227006505</v>
       </c>
       <c r="F12">
-        <v>33.49523668137394</v>
+        <v>21.18038886825079</v>
       </c>
       <c r="G12">
-        <v>35.02505049181858</v>
+        <v>22.10604458097011</v>
       </c>
       <c r="H12">
-        <v>15.92011814910214</v>
+        <v>8.268722708478521</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.54409971611568</v>
+        <v>6.023803880337061</v>
       </c>
       <c r="K12">
-        <v>21.28757822952999</v>
+        <v>31.32860367635299</v>
       </c>
       <c r="L12">
-        <v>9.800279371504447</v>
+        <v>5.805081922221576</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.05817452862486</v>
+        <v>13.68901137122332</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>14.10304059669027</v>
+        <v>12.90663756410926</v>
       </c>
       <c r="D13">
-        <v>9.738005299886856</v>
+        <v>8.68952775647989</v>
       </c>
       <c r="E13">
-        <v>14.6119883604644</v>
+        <v>10.85768719678284</v>
       </c>
       <c r="F13">
-        <v>33.50202652190541</v>
+        <v>21.16520340441681</v>
       </c>
       <c r="G13">
-        <v>35.03626874849722</v>
+        <v>22.08759387543485</v>
       </c>
       <c r="H13">
-        <v>15.92424515201128</v>
+        <v>8.275034189887572</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.54515295300251</v>
+        <v>6.023402554120516</v>
       </c>
       <c r="K13">
-        <v>21.25039395235967</v>
+        <v>31.24586261348431</v>
       </c>
       <c r="L13">
-        <v>9.800631386171538</v>
+        <v>5.803018601059697</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.06563040779348</v>
+        <v>13.69272654181495</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>14.08800330656129</v>
+        <v>12.81923792399279</v>
       </c>
       <c r="D14">
-        <v>9.72551464989318</v>
+        <v>8.631900130765004</v>
       </c>
       <c r="E14">
-        <v>14.60699974236631</v>
+        <v>10.80583767435604</v>
       </c>
       <c r="F14">
-        <v>33.52441070967648</v>
+        <v>21.11663644811692</v>
       </c>
       <c r="G14">
-        <v>35.07319926371051</v>
+        <v>22.02915665291991</v>
       </c>
       <c r="H14">
-        <v>15.93778361919443</v>
+        <v>8.295926922894093</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.54861848411096</v>
+        <v>6.022178067906758</v>
       </c>
       <c r="K14">
-        <v>21.12864790251089</v>
+        <v>30.97461706600221</v>
       </c>
       <c r="L14">
-        <v>9.80179957316013</v>
+        <v>5.796331067065181</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.09011256960905</v>
+        <v>13.70565958064938</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>14.07883649217961</v>
+        <v>12.7655672948093</v>
       </c>
       <c r="D15">
-        <v>9.717873962802351</v>
+        <v>8.5964639983777</v>
       </c>
       <c r="E15">
-        <v>14.60398375284811</v>
+        <v>10.77406971414473</v>
       </c>
       <c r="F15">
-        <v>33.5383067533371</v>
+        <v>21.08761844805974</v>
       </c>
       <c r="G15">
-        <v>35.09608529363825</v>
+        <v>21.99468690956971</v>
       </c>
       <c r="H15">
-        <v>15.9461373399185</v>
+        <v>8.308959362766124</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.55076481509265</v>
+        <v>6.021492475477777</v>
       </c>
       <c r="K15">
-        <v>21.05370790769501</v>
+        <v>30.80738700399395</v>
       </c>
       <c r="L15">
-        <v>9.802530645178395</v>
+        <v>5.792266529685429</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.10523679711816</v>
+        <v>13.71420206092855</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>14.02698932643922</v>
+        <v>12.45596795966441</v>
       </c>
       <c r="D16">
-        <v>9.674252299463385</v>
+        <v>8.391313580817341</v>
       </c>
       <c r="E16">
-        <v>14.58731134184746</v>
+        <v>10.59192107838544</v>
       </c>
       <c r="F16">
-        <v>33.62077041306199</v>
+        <v>20.93235562653767</v>
       </c>
       <c r="G16">
-        <v>35.23128378175068</v>
+        <v>21.81710933617433</v>
       </c>
       <c r="H16">
-        <v>15.99494421836143</v>
+        <v>8.387129511946094</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.56342640236626</v>
+        <v>6.018536744970621</v>
       </c>
       <c r="K16">
-        <v>20.61871071845322</v>
+        <v>29.83237169246814</v>
       </c>
       <c r="L16">
-        <v>9.806958425190173</v>
+        <v>5.76945939444853</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.19386977687884</v>
+        <v>13.77237160723698</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.99580434346254</v>
+        <v>12.2642790455798</v>
       </c>
       <c r="D17">
-        <v>9.64764656887227</v>
+        <v>8.263637146626571</v>
       </c>
       <c r="E17">
-        <v>14.57763151301866</v>
+        <v>10.4801277781694</v>
       </c>
       <c r="F17">
-        <v>33.67387909750307</v>
+        <v>20.84675453858751</v>
       </c>
       <c r="G17">
-        <v>35.31782031315844</v>
+        <v>21.72557413032649</v>
       </c>
       <c r="H17">
-        <v>16.02571987900189</v>
+        <v>8.438073586201485</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.57151697697231</v>
+        <v>6.017576198657121</v>
       </c>
       <c r="K17">
-        <v>20.34699522333731</v>
+        <v>29.21926892400615</v>
       </c>
       <c r="L17">
-        <v>9.809887759677899</v>
+        <v>5.755898811007348</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.24999113619062</v>
+        <v>13.81596124822549</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.97810032607401</v>
+        <v>12.15340198822187</v>
       </c>
       <c r="D18">
-        <v>9.632403835467072</v>
+        <v>8.189545150796551</v>
       </c>
       <c r="E18">
-        <v>14.57226651455051</v>
+        <v>10.41582408775335</v>
       </c>
       <c r="F18">
-        <v>33.70534934983366</v>
+        <v>20.80098569365109</v>
       </c>
       <c r="G18">
-        <v>35.36890950791029</v>
+        <v>21.67915224467028</v>
       </c>
       <c r="H18">
-        <v>16.04372773679832</v>
+        <v>8.468427216274005</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.57628929133137</v>
+        <v>6.017330967699419</v>
       </c>
       <c r="K18">
-        <v>20.18896373292787</v>
+        <v>28.86110188028698</v>
       </c>
       <c r="L18">
-        <v>9.811651079903749</v>
+        <v>5.748256680089221</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.28291184427304</v>
+        <v>13.84381268624831</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.97214643118018</v>
+        <v>12.11575644009668</v>
       </c>
       <c r="D19">
-        <v>9.627253556165579</v>
+        <v>8.164347674183965</v>
       </c>
       <c r="E19">
-        <v>14.57048491723701</v>
+        <v>10.39405296741831</v>
       </c>
       <c r="F19">
-        <v>33.71616301601284</v>
+        <v>20.78607683863819</v>
       </c>
       <c r="G19">
-        <v>35.38643282400336</v>
+        <v>21.66448722367042</v>
       </c>
       <c r="H19">
-        <v>16.04987752639483</v>
+        <v>8.478880846115079</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.57792553274012</v>
+        <v>6.017300134915216</v>
       </c>
       <c r="K19">
-        <v>20.1351605309915</v>
+        <v>28.7388808977214</v>
       </c>
       <c r="L19">
-        <v>9.812261597333961</v>
+        <v>5.745696173401417</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.29416824622325</v>
+        <v>13.85370843493668</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.99910004493352</v>
+        <v>12.28474967465091</v>
       </c>
       <c r="D20">
-        <v>9.650472640396034</v>
+        <v>8.277296740669057</v>
       </c>
       <c r="E20">
-        <v>14.57864100591613</v>
+        <v>10.49202905397609</v>
       </c>
       <c r="F20">
-        <v>33.66812994733611</v>
+        <v>20.85550631873519</v>
       </c>
       <c r="G20">
-        <v>35.30847204778257</v>
+        <v>21.73466981683985</v>
       </c>
       <c r="H20">
-        <v>16.02241203324656</v>
+        <v>8.432540607515703</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.57064342510308</v>
+        <v>6.017646514753459</v>
       </c>
       <c r="K20">
-        <v>20.37610158571812</v>
+        <v>29.28510611828158</v>
       </c>
       <c r="L20">
-        <v>9.809567811783262</v>
+        <v>5.757326034171997</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.24395053534404</v>
+        <v>13.81103056123011</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>14.0924109869393</v>
+        <v>12.84493772997516</v>
       </c>
       <c r="D21">
-        <v>9.729181350152226</v>
+        <v>8.648855489782676</v>
       </c>
       <c r="E21">
-        <v>14.60845675722906</v>
+        <v>10.82106901117444</v>
       </c>
       <c r="F21">
-        <v>33.51779734640385</v>
+        <v>21.13074906854674</v>
       </c>
       <c r="G21">
-        <v>35.06229661162821</v>
+        <v>22.04604419844535</v>
       </c>
       <c r="H21">
-        <v>15.93379432654982</v>
+        <v>8.289740955793576</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.547595657348</v>
+        <v>6.022524264610849</v>
       </c>
       <c r="K21">
-        <v>21.16448433979355</v>
+        <v>31.05451426839169</v>
       </c>
       <c r="L21">
-        <v>9.801453214064763</v>
+        <v>5.798288732485621</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.08289484254158</v>
+        <v>13.70173078378706</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>14.15537441034561</v>
+        <v>13.20503515238777</v>
       </c>
       <c r="D22">
-        <v>9.781087356858492</v>
+        <v>8.885570488137631</v>
       </c>
       <c r="E22">
-        <v>14.62972230689491</v>
+        <v>11.03577026582134</v>
       </c>
       <c r="F22">
-        <v>33.42782340937664</v>
+        <v>21.34313086724351</v>
       </c>
       <c r="G22">
-        <v>34.91325214233228</v>
+        <v>22.30839759358966</v>
       </c>
       <c r="H22">
-        <v>15.87860840802465</v>
+        <v>8.206804829544909</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.53358882692454</v>
+        <v>6.028579795756705</v>
       </c>
       <c r="K22">
-        <v>21.66340895341562</v>
+        <v>32.16231657683443</v>
       </c>
       <c r="L22">
-        <v>9.796845080610996</v>
+        <v>5.826480083280258</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.98337026411101</v>
+        <v>13.65773490187855</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>14.12159316135456</v>
+        <v>13.01341486624874</v>
       </c>
       <c r="D23">
-        <v>9.753345002773601</v>
+        <v>8.759803031453265</v>
       </c>
       <c r="E23">
-        <v>14.61821092750588</v>
+        <v>10.92122595056628</v>
       </c>
       <c r="F23">
-        <v>33.47508429400987</v>
+        <v>21.2267309044493</v>
       </c>
       <c r="G23">
-        <v>34.99170983080801</v>
+        <v>22.1628400669525</v>
       </c>
       <c r="H23">
-        <v>15.90781221796397</v>
+        <v>8.250066091663651</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.54096798678841</v>
+        <v>6.025078938376348</v>
       </c>
       <c r="K23">
-        <v>21.39865168394736</v>
+        <v>31.57547897804979</v>
       </c>
       <c r="L23">
-        <v>9.799241077310947</v>
+        <v>5.81130307249418</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.03596245421131</v>
+        <v>13.67857383803434</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.99760935754524</v>
+        <v>12.27549699242022</v>
       </c>
       <c r="D24">
-        <v>9.649194806808257</v>
+        <v>8.271123381300113</v>
       </c>
       <c r="E24">
-        <v>14.57818399073927</v>
+        <v>10.48664858390061</v>
       </c>
       <c r="F24">
-        <v>33.67072621885722</v>
+        <v>20.8515389290983</v>
       </c>
       <c r="G24">
-        <v>35.31269423155138</v>
+        <v>21.73053837605319</v>
       </c>
       <c r="H24">
-        <v>16.02390653058816</v>
+        <v>8.435038760289473</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.57103798117621</v>
+        <v>6.017613770051184</v>
       </c>
       <c r="K24">
-        <v>20.36294825506348</v>
+        <v>29.25535884024205</v>
       </c>
       <c r="L24">
-        <v>9.809712213470089</v>
+        <v>5.756680306996144</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.24667944846587</v>
+        <v>13.81325106044193</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.87282066211233</v>
+        <v>11.45616258423247</v>
       </c>
       <c r="D25">
-        <v>9.539192863611293</v>
+        <v>7.719183636255192</v>
       </c>
       <c r="E25">
-        <v>14.54276562189806</v>
+        <v>10.01800693118103</v>
       </c>
       <c r="F25">
-        <v>33.91703400245997</v>
+        <v>20.57820529110939</v>
       </c>
       <c r="G25">
-        <v>35.70915348273748</v>
+        <v>21.49958583533263</v>
       </c>
       <c r="H25">
-        <v>16.1608514441605</v>
+        <v>8.674305316024585</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.60801760300921</v>
+        <v>6.02123622800135</v>
       </c>
       <c r="K25">
-        <v>19.17955509337718</v>
+        <v>26.54112934382529</v>
       </c>
       <c r="L25">
-        <v>9.82400797848485</v>
+        <v>5.703774817753883</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.49847246677509</v>
+        <v>14.06334075218386</v>
       </c>
     </row>
   </sheetData>
